--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.88</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.92</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,15 +644,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.92</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.17</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1175,13 +1262,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1305,7 +1306,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,17 +1317,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1357,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.64</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -1352,14 +1447,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -1368,14 +1463,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1384,14 +1479,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -1400,13 +1495,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1542,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.64</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1558,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.15</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5">
@@ -1479,14 +1574,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="6">
@@ -1495,14 +1590,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7">
@@ -1511,13 +1606,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
+++ b/数据整理/stocks/A股/上证主板/603711-香飘飘.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,91 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000972</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>新华万银多元策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -551,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -602,74 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>200016</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>长城稳健成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>79.77</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0357</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,7 +720,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -734,150 +750,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.25</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0549</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>69.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0266</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.77</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0121</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -942,36 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>79.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0640</t>
+          <t>0.3188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -980,36 +882,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.46</t>
+          <t>86.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0475</t>
+          <t>0.2846</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1028,26 +930,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>86.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0251</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1066,22 +968,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.46</t>
+          <t>79.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1120,7 +1022,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1150,36 +1052,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3188</t>
+          <t>0.0640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1188,36 +1090,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>79.46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2846</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1236,26 +1138,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.65</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0251</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1274,22 +1176,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>79.46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1307,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1328,7 +1230,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1358,36 +1260,150 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>003981</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1422,7 +1438,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1452,36 +1468,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>200016</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城稳健成长灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.77</t>
+          <t>88.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0357</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1495,144 +1549,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000972</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华万银多元策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.01</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>